--- a/data/output/FV2404_FV2310/REMADV/33002.xlsx
+++ b/data/output/FV2404_FV2310/REMADV/33002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="247">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="247">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -892,6 +892,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U105" totalsRowShown="0">
+  <autoFilter ref="A1:U105"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1181,7 +1211,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6093,5 +6126,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/REMADV/33002.xlsx
+++ b/data/output/FV2404_FV2310/REMADV/33002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="349">
   <si>
     <t>#</t>
   </si>
@@ -6394,9 +6394,7 @@
         <v>208</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>37</v>
       </c>
@@ -6450,9 +6448,7 @@
       <c r="K97" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>37</v>
       </c>
@@ -6479,44 +6475,42 @@
       </c>
     </row>
     <row r="98" spans="1:22">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5" t="s">
+      <c r="C98" s="2"/>
+      <c r="D98" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5" t="s">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M98" s="5" t="s">
+      <c r="K98" s="2"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5" t="s">
+      <c r="N98" s="2"/>
+      <c r="O98" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-      <c r="U98" s="5" t="s">
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="V98" s="5"/>
+      <c r="V98" s="2"/>
     </row>
     <row r="99" spans="1:22">
       <c r="A99" s="5" t="s">
@@ -6544,9 +6538,7 @@
         <v>208</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>38</v>
       </c>
@@ -6571,44 +6563,42 @@
       <c r="V99" s="5"/>
     </row>
     <row r="100" spans="1:22">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5" t="s">
+      <c r="C100" s="2"/>
+      <c r="D100" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5" t="s">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M100" s="5" t="s">
+      <c r="K100" s="2"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5" t="s">
+      <c r="N100" s="2"/>
+      <c r="O100" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
-      <c r="U100" s="5" t="s">
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="V100" s="5"/>
+      <c r="V100" s="2"/>
     </row>
     <row r="101" spans="1:22">
       <c r="A101" s="5" t="s">
@@ -6636,9 +6626,7 @@
         <v>208</v>
       </c>
       <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>39</v>
       </c>
@@ -6688,9 +6676,7 @@
       <c r="K102" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="L102" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>39</v>
       </c>
@@ -6715,44 +6701,42 @@
       </c>
     </row>
     <row r="103" spans="1:22">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5" t="s">
+      <c r="C103" s="2"/>
+      <c r="D103" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5" t="s">
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M103" s="5" t="s">
+      <c r="K103" s="2"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5" t="s">
+      <c r="N103" s="2"/>
+      <c r="O103" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-      <c r="U103" s="5" t="s">
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="V103" s="5"/>
+      <c r="V103" s="2"/>
     </row>
     <row r="104" spans="1:22">
       <c r="A104" s="5" t="s">
@@ -6778,9 +6762,7 @@
         <v>208</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>40</v>
       </c>
@@ -6826,9 +6808,7 @@
         <v>208</v>
       </c>
       <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>233</v>
-      </c>
+      <c r="L105" s="4"/>
       <c r="M105" s="5" t="s">
         <v>40</v>
       </c>

--- a/data/output/FV2404_FV2310/REMADV/33002.xlsx
+++ b/data/output/FV2404_FV2310/REMADV/33002.xlsx
@@ -1653,7 +1653,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2123,7 +2123,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2311,7 +2311,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2797,7 +2797,7 @@
         <v>223</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2985,7 +2985,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3349,7 +3349,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3695,7 +3695,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4439,7 +4439,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4795,7 +4795,7 @@
         <v>227</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -6319,23 +6319,23 @@
       </c>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
       <c r="J95" s="6" t="s">
         <v>220</v>
       </c>
@@ -6345,20 +6345,20 @@
       <c r="L95" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="M95" s="5" t="s">
+      <c r="M95" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N95" s="5" t="s">
+      <c r="N95" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O95" s="5" t="s">
+      <c r="O95" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
       <c r="U95" s="6" t="s">
         <v>246</v>
       </c>
@@ -6495,7 +6495,7 @@
       </c>
       <c r="K98" s="2"/>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N98" s="2"/>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N100" s="2"/>
@@ -6721,7 +6721,7 @@
       </c>
       <c r="K103" s="2"/>
       <c r="L103" s="4"/>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N103" s="2"/>
